--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H2">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I2">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J2">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2570382321814</v>
+        <v>43.37692366666667</v>
       </c>
       <c r="N2">
-        <v>41.2570382321814</v>
+        <v>130.130771</v>
       </c>
       <c r="O2">
-        <v>0.9945425783980903</v>
+        <v>0.9914401803448945</v>
       </c>
       <c r="P2">
-        <v>0.9945425783980903</v>
+        <v>0.9931650303696206</v>
       </c>
       <c r="Q2">
-        <v>75.34991213169542</v>
+        <v>97.7145163720959</v>
       </c>
       <c r="R2">
-        <v>75.34991213169542</v>
+        <v>879.4306473488631</v>
       </c>
       <c r="S2">
-        <v>0.01936469671872</v>
+        <v>0.02203167673358884</v>
       </c>
       <c r="T2">
-        <v>0.01936469671872</v>
+        <v>0.02356117236818635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H3">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I3">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J3">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.226392571388727</v>
+        <v>0.064626</v>
       </c>
       <c r="N3">
-        <v>0.226392571388727</v>
+        <v>0.193878</v>
       </c>
       <c r="O3">
-        <v>0.00545742160190963</v>
+        <v>0.001477117501170476</v>
       </c>
       <c r="P3">
-        <v>0.00545742160190963</v>
+        <v>0.001479687304380924</v>
       </c>
       <c r="Q3">
-        <v>0.4134727331954486</v>
+        <v>0.145581977726</v>
       </c>
       <c r="R3">
-        <v>0.4134727331954486</v>
+        <v>1.310237799534</v>
       </c>
       <c r="S3">
-        <v>0.0001062612265001182</v>
+        <v>3.282434576334552E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001062612265001182</v>
+        <v>3.510309622617415E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.1950051260558</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H4">
-        <v>73.1950051260558</v>
+        <v>6.758053</v>
       </c>
       <c r="I4">
-        <v>0.7803403455941084</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J4">
-        <v>0.7803403455941084</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>41.2570382321814</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N4">
-        <v>41.2570382321814</v>
+        <v>0.154531</v>
       </c>
       <c r="O4">
-        <v>0.9945425783980903</v>
+        <v>0.001177340619221236</v>
       </c>
       <c r="P4">
-        <v>0.9945425783980903</v>
+        <v>0.001179388888029011</v>
       </c>
       <c r="Q4">
-        <v>3019.809124890398</v>
+        <v>0.1160365209047778</v>
       </c>
       <c r="R4">
-        <v>3019.809124890398</v>
+        <v>1.044328688143</v>
       </c>
       <c r="S4">
-        <v>0.7760816993352214</v>
+        <v>2.616273623183418E-05</v>
       </c>
       <c r="T4">
-        <v>0.7760816993352214</v>
+        <v>2.79790206363121E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.1950051260558</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H5">
-        <v>73.1950051260558</v>
+        <v>6.758053</v>
       </c>
       <c r="I5">
-        <v>0.7803403455941084</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J5">
-        <v>0.7803403455941084</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.226392571388727</v>
+        <v>0.030416</v>
       </c>
       <c r="N5">
-        <v>0.226392571388727</v>
+        <v>0.091248</v>
       </c>
       <c r="O5">
-        <v>0.00545742160190963</v>
+        <v>0.000695200165809445</v>
       </c>
       <c r="P5">
-        <v>0.00545742160190963</v>
+        <v>0.0006964096346679382</v>
       </c>
       <c r="Q5">
-        <v>16.57080542329883</v>
+        <v>0.06851764668266666</v>
       </c>
       <c r="R5">
-        <v>16.57080542329883</v>
+        <v>0.616658820144</v>
       </c>
       <c r="S5">
-        <v>0.004258646258886913</v>
+        <v>1.544866308819852E-05</v>
       </c>
       <c r="T5">
-        <v>0.004258646258886913</v>
+        <v>1.652114899290244E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7774638929651</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H6">
-        <v>18.7774638929651</v>
+        <v>6.758053</v>
       </c>
       <c r="I6">
-        <v>0.2001886964606714</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J6">
-        <v>0.2001886964606714</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2570382321814</v>
+        <v>0.227952</v>
       </c>
       <c r="N6">
-        <v>41.2570382321814</v>
+        <v>0.455904</v>
       </c>
       <c r="O6">
-        <v>0.9945425783980903</v>
+        <v>0.005210161368904348</v>
       </c>
       <c r="P6">
-        <v>0.9945425783980903</v>
+        <v>0.003479483803301461</v>
       </c>
       <c r="Q6">
-        <v>774.7025457354669</v>
+        <v>0.513503899152</v>
       </c>
       <c r="R6">
-        <v>774.7025457354669</v>
+        <v>3.081023394912001</v>
       </c>
       <c r="S6">
-        <v>0.1990961823441488</v>
+        <v>0.000115779643880886</v>
       </c>
       <c r="T6">
-        <v>0.1990961823441488</v>
+        <v>8.254490959210278E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H7">
+        <v>239.321053</v>
+      </c>
+      <c r="I7">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J7">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N7">
+        <v>130.130771</v>
+      </c>
+      <c r="O7">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P7">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q7">
+        <v>3460.337015935763</v>
+      </c>
+      <c r="R7">
+        <v>31143.03314342187</v>
+      </c>
+      <c r="S7">
+        <v>0.7802016461306358</v>
+      </c>
+      <c r="T7">
+        <v>0.8343652500311645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H8">
+        <v>239.321053</v>
+      </c>
+      <c r="I8">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J8">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.064626</v>
+      </c>
+      <c r="N8">
+        <v>0.193878</v>
+      </c>
+      <c r="O8">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P8">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q8">
+        <v>5.155454123726001</v>
+      </c>
+      <c r="R8">
+        <v>46.399087113534</v>
+      </c>
+      <c r="S8">
+        <v>0.001162399435476451</v>
+      </c>
+      <c r="T8">
+        <v>0.001243096192410495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H9">
+        <v>239.321053</v>
+      </c>
+      <c r="I9">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J9">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.154531</v>
+      </c>
+      <c r="O9">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P9">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q9">
+        <v>4.109169071238111</v>
+      </c>
+      <c r="R9">
+        <v>36.982521641143</v>
+      </c>
+      <c r="S9">
+        <v>0.0009264937082268825</v>
+      </c>
+      <c r="T9">
+        <v>0.000990813283143968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H10">
+        <v>239.321053</v>
+      </c>
+      <c r="I10">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J10">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030416</v>
+      </c>
+      <c r="N10">
+        <v>0.091248</v>
+      </c>
+      <c r="O10">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P10">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q10">
+        <v>2.426396382682666</v>
+      </c>
+      <c r="R10">
+        <v>21.837567444144</v>
+      </c>
+      <c r="S10">
+        <v>0.0005470792131564966</v>
+      </c>
+      <c r="T10">
+        <v>0.0005850588584835456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>79.77368433333334</v>
+      </c>
+      <c r="H11">
+        <v>239.321053</v>
+      </c>
+      <c r="I11">
+        <v>0.7869376908440662</v>
+      </c>
+      <c r="J11">
+        <v>0.8401073583114818</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.227952</v>
+      </c>
+      <c r="N11">
+        <v>0.455904</v>
+      </c>
+      <c r="O11">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P11">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q11">
+        <v>18.184570891152</v>
+      </c>
+      <c r="R11">
+        <v>109.107425346912</v>
+      </c>
+      <c r="S11">
+        <v>0.004100072356570546</v>
+      </c>
+      <c r="T11">
+        <v>0.002923139946279178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="H7">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="I7">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="J7">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.226392571388727</v>
-      </c>
-      <c r="N7">
-        <v>0.226392571388727</v>
-      </c>
-      <c r="O7">
-        <v>0.00545742160190963</v>
-      </c>
-      <c r="P7">
-        <v>0.00545742160190963</v>
-      </c>
-      <c r="Q7">
-        <v>4.251078334887345</v>
-      </c>
-      <c r="R7">
-        <v>4.251078334887345</v>
-      </c>
-      <c r="S7">
-        <v>0.001092514116522598</v>
-      </c>
-      <c r="T7">
-        <v>0.001092514116522598</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.266579</v>
+      </c>
+      <c r="I12">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J12">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N12">
+        <v>130.130771</v>
+      </c>
+      <c r="O12">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P12">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q12">
+        <v>3.854458978045445</v>
+      </c>
+      <c r="R12">
+        <v>34.690130802409</v>
+      </c>
+      <c r="S12">
+        <v>0.0008690642633260465</v>
+      </c>
+      <c r="T12">
+        <v>0.0009293969385470562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.266579</v>
+      </c>
+      <c r="I13">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J13">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.064626</v>
+      </c>
+      <c r="N13">
+        <v>0.193878</v>
+      </c>
+      <c r="O13">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P13">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q13">
+        <v>0.005742644818</v>
+      </c>
+      <c r="R13">
+        <v>0.051683803362</v>
+      </c>
+      <c r="S13">
+        <v>1.294793229536212E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.384681103992123E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.266579</v>
+      </c>
+      <c r="I14">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J14">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.154531</v>
+      </c>
+      <c r="O14">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P14">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q14">
+        <v>0.004577191049888889</v>
+      </c>
+      <c r="R14">
+        <v>0.041194719449</v>
+      </c>
+      <c r="S14">
+        <v>1.032018550601205E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.103663931343457E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.266579</v>
+      </c>
+      <c r="I15">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J15">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030416</v>
+      </c>
+      <c r="N15">
+        <v>0.091248</v>
+      </c>
+      <c r="O15">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P15">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q15">
+        <v>0.002702755621333333</v>
+      </c>
+      <c r="R15">
+        <v>0.024324800592</v>
+      </c>
+      <c r="S15">
+        <v>6.093898874999756E-07</v>
+      </c>
+      <c r="T15">
+        <v>6.516953000189461E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.266579</v>
+      </c>
+      <c r="I16">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J16">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.227952</v>
+      </c>
+      <c r="N16">
+        <v>0.455904</v>
+      </c>
+      <c r="O16">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P16">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q16">
+        <v>0.020255738736</v>
+      </c>
+      <c r="R16">
+        <v>0.121534432416</v>
+      </c>
+      <c r="S16">
+        <v>4.567058246823858E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.256076780420805E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.029331</v>
+      </c>
+      <c r="I17">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J17">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N17">
+        <v>130.130771</v>
+      </c>
+      <c r="O17">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P17">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q17">
+        <v>0.424096182689</v>
+      </c>
+      <c r="R17">
+        <v>3.816865644201</v>
+      </c>
+      <c r="S17">
+        <v>9.562090002444405E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.000102259148712103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.029331</v>
+      </c>
+      <c r="I18">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J18">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.064626</v>
+      </c>
+      <c r="N18">
+        <v>0.193878</v>
+      </c>
+      <c r="O18">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P18">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q18">
+        <v>0.000631848402</v>
+      </c>
+      <c r="R18">
+        <v>0.005686635618</v>
+      </c>
+      <c r="S18">
+        <v>1.424627604407198E-07</v>
+      </c>
+      <c r="T18">
+        <v>1.523528914925518E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.029331</v>
+      </c>
+      <c r="I19">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J19">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.154531</v>
+      </c>
+      <c r="O19">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P19">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q19">
+        <v>0.000503616529</v>
+      </c>
+      <c r="R19">
+        <v>0.004532548761</v>
+      </c>
+      <c r="S19">
+        <v>1.135503400781154E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.214332965846332E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.029331</v>
+      </c>
+      <c r="I20">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J20">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030416</v>
+      </c>
+      <c r="N20">
+        <v>0.091248</v>
+      </c>
+      <c r="O20">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P20">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q20">
+        <v>0.000297377232</v>
+      </c>
+      <c r="R20">
+        <v>0.002676395088</v>
+      </c>
+      <c r="S20">
+        <v>6.704959801883038E-08</v>
+      </c>
+      <c r="T20">
+        <v>7.170435347441361E-08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.029331</v>
+      </c>
+      <c r="I21">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J21">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.227952</v>
+      </c>
+      <c r="N21">
+        <v>0.455904</v>
+      </c>
+      <c r="O21">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P21">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q21">
+        <v>0.002228686704</v>
+      </c>
+      <c r="R21">
+        <v>0.013372120224</v>
+      </c>
+      <c r="S21">
+        <v>5.025016428060372E-07</v>
+      </c>
+      <c r="T21">
+        <v>3.582577324039877E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19.2472955</v>
+      </c>
+      <c r="H22">
+        <v>38.494591</v>
+      </c>
+      <c r="I22">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J22">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.37692366666667</v>
+      </c>
+      <c r="N22">
+        <v>130.130771</v>
+      </c>
+      <c r="O22">
+        <v>0.9914401803448945</v>
+      </c>
+      <c r="P22">
+        <v>0.9931650303696206</v>
+      </c>
+      <c r="Q22">
+        <v>834.8884676932769</v>
+      </c>
+      <c r="R22">
+        <v>5009.330806159662</v>
+      </c>
+      <c r="S22">
+        <v>0.1882421723173194</v>
+      </c>
+      <c r="T22">
+        <v>0.1342069518830105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19.2472955</v>
+      </c>
+      <c r="H23">
+        <v>38.494591</v>
+      </c>
+      <c r="I23">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J23">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.064626</v>
+      </c>
+      <c r="N23">
+        <v>0.193878</v>
+      </c>
+      <c r="O23">
+        <v>0.001477117501170476</v>
+      </c>
+      <c r="P23">
+        <v>0.001479687304380924</v>
+      </c>
+      <c r="Q23">
+        <v>1.243875718983</v>
+      </c>
+      <c r="R23">
+        <v>7.463254313898</v>
+      </c>
+      <c r="S23">
+        <v>0.000280456463940702</v>
+      </c>
+      <c r="T23">
+        <v>0.0001999509817487696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.2472955</v>
+      </c>
+      <c r="H24">
+        <v>38.494591</v>
+      </c>
+      <c r="I24">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J24">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05151033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.154531</v>
+      </c>
+      <c r="O24">
+        <v>0.001177340619221236</v>
+      </c>
+      <c r="P24">
+        <v>0.001179388888029011</v>
+      </c>
+      <c r="Q24">
+        <v>0.9914346069701666</v>
+      </c>
+      <c r="R24">
+        <v>5.948607641821</v>
+      </c>
+      <c r="S24">
+        <v>0.0002235386058718402</v>
+      </c>
+      <c r="T24">
+        <v>0.0001593714870208023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>19.2472955</v>
+      </c>
+      <c r="H25">
+        <v>38.494591</v>
+      </c>
+      <c r="I25">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J25">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.030416</v>
+      </c>
+      <c r="N25">
+        <v>0.091248</v>
+      </c>
+      <c r="O25">
+        <v>0.000695200165809445</v>
+      </c>
+      <c r="P25">
+        <v>0.0006964096346679382</v>
+      </c>
+      <c r="Q25">
+        <v>0.585425739928</v>
+      </c>
+      <c r="R25">
+        <v>3.512554439568</v>
+      </c>
+      <c r="S25">
+        <v>0.0001319958500792311</v>
+      </c>
+      <c r="T25">
+        <v>9.41062275379967E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>19.2472955</v>
+      </c>
+      <c r="H26">
+        <v>38.494591</v>
+      </c>
+      <c r="I26">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J26">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.227952</v>
+      </c>
+      <c r="N26">
+        <v>0.455904</v>
+      </c>
+      <c r="O26">
+        <v>0.005210161368904348</v>
+      </c>
+      <c r="P26">
+        <v>0.003479483803301461</v>
+      </c>
+      <c r="Q26">
+        <v>4.387459503816</v>
+      </c>
+      <c r="R26">
+        <v>17.549838015264</v>
+      </c>
+      <c r="S26">
+        <v>0.0009892398085632858</v>
+      </c>
+      <c r="T26">
+        <v>0.0004701846129173555</v>
       </c>
     </row>
   </sheetData>
